--- a/Part_2_tables/overall_sums_transposed.xlsx
+++ b/Part_2_tables/overall_sums_transposed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/Github/Research_proposal/Part_2_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C1129D-4E9A-E54E-AC4D-F601268FD2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CD53FD-E808-064F-B89C-5AC459A06049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38180" yWindow="1160" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34520" yWindow="1800" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Element</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>DOI</t>
   </si>
@@ -40,29 +37,29 @@
     <t>language</t>
   </si>
   <si>
-    <t>cited_by</t>
-  </si>
-  <si>
     <t>url</t>
   </si>
   <si>
-    <t>license_version</t>
-  </si>
-  <si>
-    <t>license_type</t>
-  </si>
-  <si>
     <t>Crossref Sums</t>
   </si>
   <si>
     <t>OA Sums</t>
+  </si>
+  <si>
+    <t>license version</t>
+  </si>
+  <si>
+    <t>license type</t>
+  </si>
+  <si>
+    <t>cited by</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +70,12 @@
     <font>
       <b/>
       <sz val="10"/>
+      <name val="Atkinson Hyperlegible Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Atkinson Hyperlegible Regular"/>
     </font>
     <font>
@@ -101,12 +104,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,31 +420,32 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="10" width="7.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
@@ -451,66 +456,66 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2">
-        <v>10104</v>
-      </c>
-      <c r="C2" s="2">
-        <v>10104</v>
-      </c>
-      <c r="D2" s="2">
-        <v>10104</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10104</v>
-      </c>
-      <c r="F2" s="2">
-        <v>4966</v>
-      </c>
-      <c r="G2" s="2">
-        <v>10104</v>
-      </c>
-      <c r="H2" s="2">
-        <v>10104</v>
-      </c>
-      <c r="I2" s="2">
-        <v>5911</v>
-      </c>
-      <c r="J2" s="2">
-        <v>5911</v>
+        <v>6</v>
+      </c>
+      <c r="B2" s="3">
+        <v>9988</v>
+      </c>
+      <c r="C2" s="3">
+        <v>9988</v>
+      </c>
+      <c r="D2" s="3">
+        <v>9988</v>
+      </c>
+      <c r="E2" s="3">
+        <v>9988</v>
+      </c>
+      <c r="F2" s="3">
+        <v>4870</v>
+      </c>
+      <c r="G2" s="3">
+        <v>9988</v>
+      </c>
+      <c r="H2" s="3">
+        <v>9988</v>
+      </c>
+      <c r="I2" s="3">
+        <v>5852</v>
+      </c>
+      <c r="J2" s="3">
+        <v>5852</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2">
-        <v>9994</v>
-      </c>
-      <c r="C3" s="2">
-        <v>9994</v>
-      </c>
-      <c r="D3" s="2">
-        <v>9991</v>
-      </c>
-      <c r="E3" s="2">
-        <v>9994</v>
-      </c>
-      <c r="F3" s="2">
-        <v>9971</v>
-      </c>
-      <c r="G3" s="2">
-        <v>9994</v>
-      </c>
-      <c r="H3" s="2">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3">
+        <v>9988</v>
+      </c>
+      <c r="C3" s="3">
+        <v>9988</v>
+      </c>
+      <c r="D3" s="3">
+        <v>9985</v>
+      </c>
+      <c r="E3" s="3">
+        <v>9988</v>
+      </c>
+      <c r="F3" s="3">
+        <v>9965</v>
+      </c>
+      <c r="G3" s="3">
+        <v>9988</v>
+      </c>
+      <c r="H3" s="3">
         <v>5064</v>
       </c>
-      <c r="I3" s="2">
-        <v>6975</v>
-      </c>
-      <c r="J3" s="2">
-        <v>4440</v>
+      <c r="I3" s="3">
+        <v>6969</v>
+      </c>
+      <c r="J3" s="3">
+        <v>4437</v>
       </c>
     </row>
   </sheetData>
